--- a/data/long_bre/P16-Estudios-long_bre.xlsx
+++ b/data/long_bre/P16-Estudios-long_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,10 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +543,17 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +575,37 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -590,6 +618,10 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -599,37 +631,57 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,33</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-8,28</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-16,5</t>
+          <t>-14,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-16,04%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,54%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-59,27%</t>
+          <t>19,26%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-28,46%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-54,77%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -642,32 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,3; 6,0</t>
+          <t>-8,9; 14,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 9,93</t>
+          <t>-30,73; 5,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-24,78; -8,97</t>
+          <t>-22,67; -6,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,66; 30,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-49,21; 57,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-74,94; -40,07</t>
+          <t>-42,21; 133,87</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-67,25; 28,28</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-70,77; -31,67</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -675,37 +747,57 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,63</t>
+          <t>11,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,57%</t>
+          <t>-7,25%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>17,87%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -718,32 +810,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 15,51</t>
+          <t>-19,9; 9,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,35; 14,11</t>
+          <t>-4,48; 25,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 19,6</t>
+          <t>-0,41; 19,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 37,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 33,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 44,1</t>
+          <t>-28,11; 17,09</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-7,94; 70,64</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 41,96</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -751,37 +863,57 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>6,86</t>
+          <t>3,41</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,23%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,3%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -794,74 +926,110 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 11,47</t>
+          <t>-11,08; 13,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 12,31</t>
+          <t>-10,86; 11,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 19,8</t>
+          <t>-4,48; 10,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-31,53; 63,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-30,46; 69,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 131,19</t>
+          <t>-40,5; 90,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-36,21; 67,99</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-18,12; 72,55</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-7,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,42%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -874,70 +1042,114 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 10,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,77; -0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 6,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 66,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-46,66; -2,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 42,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,23%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,98%</t>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-31,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -950,32 +1162,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,5; 6,1</t>
+          <t>-8,47; 11,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 9,34</t>
+          <t>-14,9; -0,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,7</t>
+          <t>-4,28; 6,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 12,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 18,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; 8,86</t>
+          <t>-32,22; 74,66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-54,19; -0,33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-20,11; 44,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -983,37 +1215,57 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,37</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,22</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>-7,57%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-3,08%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1026,74 +1278,110 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 2,7</t>
+          <t>-13,41; 5,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 11,68</t>
+          <t>-7,35; 10,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 7,36</t>
+          <t>-8,94; 5,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,58; 11,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 69,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 35,09</t>
+          <t>-21,7; 11,39</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-11,97; 20,75</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-14,65; 9,33</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,81</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>16,58%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-34,15%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>4,52%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1106,32 +1394,52 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 9,58</t>
+          <t>-6,62; 9,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,47; -1,23</t>
+          <t>-3,48; 12,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 10,65</t>
+          <t>-5,23; 7,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 62,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-54,76; -5,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 88,81</t>
+          <t>-24,1; 48,33</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 74,85</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-19,59; 34,22</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1139,37 +1447,57 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,18%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-12,67%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1182,70 +1510,114 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 8,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 9,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,28; -0,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 14,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 19,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-23,15; -0,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>Mejor diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,2</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-13,41%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,68%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>17,27%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-24,14%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30,08%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1258,74 +1630,110 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-10,53; 3,55</t>
+          <t>-5,15; 10,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 13,23</t>
+          <t>-11,33; 2,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 8,82</t>
+          <t>-2,14; 10,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-39,83; 19,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 63,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 45,52</t>
+          <t>-21,81; 66,65</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-47,63; 13,69</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-11,45; 84,47</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-6,03</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,76</t>
+          <t>-8,01</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>11,2%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-25,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-9,06%</t>
+          <t>1,21%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,14%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-13,03%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1338,32 +1746,52 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 6,89</t>
+          <t>-8,9; 10,49</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -1,17</t>
+          <t>-11,24; 6,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 1,59</t>
+          <t>-15,1; -0,87</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,89; 38,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,61; -5,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-25,22; 9,44</t>
+          <t>-13,89; 20,22</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-18,36; 12,91</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-23,52; -1,64</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1371,37 +1799,57 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Peor Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,22</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>7,04</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,4%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,2%</t>
+          <t>-18,35%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>28,97%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1414,32 +1862,52 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 5,07</t>
+          <t>-13,02; 3,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 6,4</t>
+          <t>-1,47; 14,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 3,58</t>
+          <t>-2,62; 9,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-9,03; 10,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 12,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,85; 6,77</t>
+          <t>-46,65; 22,28</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 78,03</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 49,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1447,37 +1915,57 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Peor</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-8,32%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>13,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1490,44 +1978,1008 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,5; 9,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 7,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-24,54; 8,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>1,78; 46,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 33,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>-8,7</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-29,7%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>-3,78; 8,4</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>-18,54; 1,89</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>-16,4; 49,32</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-54,2; 7,97</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>-0,43%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>-8,02; 7,5</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-9,71; 14,35</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-14,15; 15,44</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-18,07; 33,05</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-8,1%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>31,21%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 4,42</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 15,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-30,21; 18,3</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-14,86; 99,83</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Mejor diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>2,81</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>-7,05</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>14,21%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>-29,07%</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>-6,33%</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 7,15</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>-11,61; -2,55</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 2,04</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-6,48; 41,66</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-42,65; -11,51</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>-22,73; 12,13</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>-2,6%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>3,01%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>-1,37%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>-6,54; 3,55</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 7,12</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 3,79</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-11,21; 6,76</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 14,18</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>-9,14; 6,8</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Peor Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>-5,56%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>8,65%</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>-5,4; 2,99</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>0,84; 9,84</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 5,96</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 13,73</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>2,68; 48,38</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>-7,8; 28,01</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_bre/P16-Estudios-long_bre.xlsx
+++ b/data/long_bre/P16-Estudios-long_bre.xlsx
@@ -640,7 +640,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -653,7 +653,7 @@
         <v>-15.51564521505583</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0</v>
+        <v>2.068698104103914</v>
       </c>
       <c r="G4" s="5" t="inlineStr"/>
       <c r="H4" s="6" t="n">
@@ -665,7 +665,9 @@
       <c r="J4" s="6" t="n">
         <v>-0.560438671673843</v>
       </c>
-      <c r="K4" s="6" t="inlineStr"/>
+      <c r="K4" s="6" t="n">
+        <v>0.1490559072604057</v>
+      </c>
       <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
@@ -684,7 +686,9 @@
       <c r="E5" s="5" t="n">
         <v>-23.74210255348176</v>
       </c>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="n">
+        <v>-6.627468041555251</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
       <c r="H5" s="6" t="n">
         <v>-0.5056746361440001</v>
@@ -695,7 +699,9 @@
       <c r="J5" s="6" t="n">
         <v>-0.7116278977741831</v>
       </c>
-      <c r="K5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="n">
+        <v>-0.3645935262363837</v>
+      </c>
       <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
@@ -714,7 +720,9 @@
       <c r="E6" s="5" t="n">
         <v>-7.76736807856993</v>
       </c>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="n">
+        <v>12.06883763822679</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
       <c r="H6" s="6" t="n">
         <v>0.9907061093551051</v>
@@ -725,14 +733,16 @@
       <c r="J6" s="6" t="n">
         <v>-0.3394937052033496</v>
       </c>
-      <c r="K6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="n">
+        <v>1.439886613938648</v>
+      </c>
       <c r="L6" s="6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -745,7 +755,7 @@
         <v>12.48983197231086</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0</v>
+        <v>12.39219141949021</v>
       </c>
       <c r="G7" s="5" t="inlineStr"/>
       <c r="H7" s="6" t="n">
@@ -757,7 +767,9 @@
       <c r="J7" s="6" t="n">
         <v>0.2390257170533837</v>
       </c>
-      <c r="K7" s="6" t="inlineStr"/>
+      <c r="K7" s="6" t="n">
+        <v>0.2931825428336546</v>
+      </c>
       <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
@@ -776,7 +788,9 @@
       <c r="E8" s="5" t="n">
         <v>1.563450053626241</v>
       </c>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="n">
+        <v>-1.994530295631735</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="6" t="n">
         <v>-0.2492968926678328</v>
@@ -787,7 +801,9 @@
       <c r="J8" s="6" t="n">
         <v>0.02607089901901517</v>
       </c>
-      <c r="K8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="n">
+        <v>-0.03716115915590743</v>
+      </c>
       <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
@@ -806,7 +822,9 @@
       <c r="E9" s="5" t="n">
         <v>21.56571823399369</v>
       </c>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="n">
+        <v>29.3309657323377</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="6" t="n">
         <v>0.2173996800596506</v>
@@ -817,14 +835,16 @@
       <c r="J9" s="6" t="n">
         <v>0.4636296726124652</v>
       </c>
-      <c r="K9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="n">
+        <v>0.9638412924695239</v>
+      </c>
       <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -837,7 +857,7 @@
         <v>3.02581324274496</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0</v>
+        <v>-14.46088952359414</v>
       </c>
       <c r="G10" s="5" t="inlineStr"/>
       <c r="H10" s="6" t="n">
@@ -849,7 +869,9 @@
       <c r="J10" s="6" t="n">
         <v>0.1508224431133356</v>
       </c>
-      <c r="K10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="n">
+        <v>-0.3297545701622316</v>
+      </c>
       <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
@@ -868,7 +890,9 @@
       <c r="E11" s="5" t="n">
         <v>-5.094946065361028</v>
       </c>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="n">
+        <v>-36.6520652626176</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="6" t="n">
         <v>-0.3867618161193999</v>
@@ -879,7 +903,9 @@
       <c r="J11" s="6" t="n">
         <v>-0.2033599970839476</v>
       </c>
-      <c r="K11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="n">
+        <v>-0.634951767843589</v>
+      </c>
       <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
@@ -898,7 +924,9 @@
       <c r="E12" s="5" t="n">
         <v>10.84544447596733</v>
       </c>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="n">
+        <v>-0.567970311880676</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="6" t="n">
         <v>1.020134224916255</v>
@@ -909,7 +937,9 @@
       <c r="J12" s="6" t="n">
         <v>0.7019677044817649</v>
       </c>
-      <c r="K12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="n">
+        <v>-0.01287228769282016</v>
+      </c>
       <c r="L12" s="6" t="inlineStr"/>
     </row>
     <row r="13">
@@ -920,7 +950,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -933,7 +963,7 @@
         <v>0.8135967765722008</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0</v>
+        <v>-1.9798150403493</v>
       </c>
       <c r="G13" s="5" t="inlineStr"/>
       <c r="H13" s="6" t="n">
@@ -945,7 +975,9 @@
       <c r="J13" s="6" t="n">
         <v>0.04507703100501144</v>
       </c>
-      <c r="K13" s="6" t="inlineStr"/>
+      <c r="K13" s="6" t="n">
+        <v>-0.08300234776930486</v>
+      </c>
       <c r="L13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
@@ -964,7 +996,9 @@
       <c r="E14" s="5" t="n">
         <v>-4.882981689187946</v>
       </c>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="n">
+        <v>-9.835335839283026</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>-0.2632758322320213</v>
@@ -975,7 +1009,9 @@
       <c r="J14" s="6" t="n">
         <v>-0.2246145706352599</v>
       </c>
-      <c r="K14" s="6" t="inlineStr"/>
+      <c r="K14" s="6" t="n">
+        <v>-0.3409062230925342</v>
+      </c>
       <c r="L14" s="6" t="inlineStr"/>
     </row>
     <row r="15">
@@ -994,7 +1030,9 @@
       <c r="E15" s="5" t="n">
         <v>6.210518492501844</v>
       </c>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="n">
+        <v>5.045123934889316</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="6" t="n">
         <v>0.8515907496678171</v>
@@ -1005,14 +1043,16 @@
       <c r="J15" s="6" t="n">
         <v>0.4140983894801386</v>
       </c>
-      <c r="K15" s="6" t="inlineStr"/>
+      <c r="K15" s="6" t="n">
+        <v>0.2528734322376296</v>
+      </c>
       <c r="L15" s="6" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1025,7 +1065,7 @@
         <v>-2.475819230015019</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0</v>
+        <v>1.092056154044596</v>
       </c>
       <c r="G16" s="5" t="inlineStr"/>
       <c r="H16" s="6" t="n">
@@ -1037,7 +1077,9 @@
       <c r="J16" s="6" t="n">
         <v>-0.04263687265420724</v>
       </c>
-      <c r="K16" s="6" t="inlineStr"/>
+      <c r="K16" s="6" t="n">
+        <v>0.02270494265748326</v>
+      </c>
       <c r="L16" s="6" t="inlineStr"/>
     </row>
     <row r="17">
@@ -1056,7 +1098,9 @@
       <c r="E17" s="5" t="n">
         <v>-9.849919811140657</v>
       </c>
-      <c r="F17" s="5" t="inlineStr"/>
+      <c r="F17" s="5" t="n">
+        <v>-6.892932217224251</v>
+      </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="6" t="n">
         <v>-0.2172545781740433</v>
@@ -1067,7 +1111,9 @@
       <c r="J17" s="6" t="n">
         <v>-0.1598618096782414</v>
       </c>
-      <c r="K17" s="6" t="inlineStr"/>
+      <c r="K17" s="6" t="n">
+        <v>-0.1307655269612229</v>
+      </c>
       <c r="L17" s="6" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1086,7 +1132,9 @@
       <c r="E18" s="5" t="n">
         <v>4.304089510635623</v>
       </c>
-      <c r="F18" s="5" t="inlineStr"/>
+      <c r="F18" s="5" t="n">
+        <v>9.752038170852684</v>
+      </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="6" t="n">
         <v>0.111885246183829</v>
@@ -1097,14 +1145,16 @@
       <c r="J18" s="6" t="n">
         <v>0.08112686223523914</v>
       </c>
-      <c r="K18" s="6" t="inlineStr"/>
+      <c r="K18" s="6" t="n">
+        <v>0.2276527205746334</v>
+      </c>
       <c r="L18" s="6" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1117,7 +1167,7 @@
         <v>1.662222453442797</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0</v>
+        <v>0.8877588863047126</v>
       </c>
       <c r="G19" s="5" t="inlineStr"/>
       <c r="H19" s="6" t="n">
@@ -1129,7 +1179,9 @@
       <c r="J19" s="6" t="n">
         <v>0.06959737774071598</v>
       </c>
-      <c r="K19" s="6" t="inlineStr"/>
+      <c r="K19" s="6" t="n">
+        <v>0.03164943624461997</v>
+      </c>
       <c r="L19" s="6" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1148,7 +1200,9 @@
       <c r="E20" s="5" t="n">
         <v>-4.172448984941609</v>
       </c>
-      <c r="F20" s="5" t="inlineStr"/>
+      <c r="F20" s="5" t="n">
+        <v>-7.574205357760794</v>
+      </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="6" t="n">
         <v>-0.2615322199389907</v>
@@ -1159,7 +1213,9 @@
       <c r="J20" s="6" t="n">
         <v>-0.1620352519311765</v>
       </c>
-      <c r="K20" s="6" t="inlineStr"/>
+      <c r="K20" s="6" t="n">
+        <v>-0.2313162209051405</v>
+      </c>
       <c r="L20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1178,7 +1234,9 @@
       <c r="E21" s="5" t="n">
         <v>7.913086218802469</v>
       </c>
-      <c r="F21" s="5" t="inlineStr"/>
+      <c r="F21" s="5" t="n">
+        <v>8.071803221735935</v>
+      </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="6" t="n">
         <v>0.4212658237126722</v>
@@ -1189,7 +1247,9 @@
       <c r="J21" s="6" t="n">
         <v>0.384348640818763</v>
       </c>
-      <c r="K21" s="6" t="inlineStr"/>
+      <c r="K21" s="6" t="n">
+        <v>0.3432252607544358</v>
+      </c>
       <c r="L21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1200,7 +1260,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1213,7 +1273,7 @@
         <v>4.765236656818869</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0</v>
+        <v>3.755722937846195</v>
       </c>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="6" t="n">
@@ -1225,7 +1285,9 @@
       <c r="J22" s="6" t="n">
         <v>0.3082666701471244</v>
       </c>
-      <c r="K22" s="6" t="inlineStr"/>
+      <c r="K22" s="6" t="n">
+        <v>0.2361007014444132</v>
+      </c>
       <c r="L22" s="6" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1244,7 +1306,9 @@
       <c r="E23" s="5" t="n">
         <v>-1.748074143927746</v>
       </c>
-      <c r="F23" s="5" t="inlineStr"/>
+      <c r="F23" s="5" t="n">
+        <v>-2.114652019795789</v>
+      </c>
       <c r="G23" s="5" t="inlineStr"/>
       <c r="H23" s="6" t="n">
         <v>-0.3106868393573536</v>
@@ -1255,7 +1319,9 @@
       <c r="J23" s="6" t="n">
         <v>-0.09897826527849857</v>
       </c>
-      <c r="K23" s="6" t="inlineStr"/>
+      <c r="K23" s="6" t="n">
+        <v>-0.106069700299529</v>
+      </c>
       <c r="L23" s="6" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1274,7 +1340,9 @@
       <c r="E24" s="5" t="n">
         <v>10.38178049891173</v>
       </c>
-      <c r="F24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="n">
+        <v>10.10638459506742</v>
+      </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="6" t="n">
         <v>0.5766537430817531</v>
@@ -1285,14 +1353,16 @@
       <c r="J24" s="6" t="n">
         <v>0.8514650416747755</v>
       </c>
-      <c r="K24" s="6" t="inlineStr"/>
+      <c r="K24" s="6" t="n">
+        <v>0.8092592060355516</v>
+      </c>
       <c r="L24" s="6" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1305,7 +1375,7 @@
         <v>-7.79966194671321</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0</v>
+        <v>-11.86649008835836</v>
       </c>
       <c r="G25" s="5" t="inlineStr"/>
       <c r="H25" s="6" t="n">
@@ -1317,7 +1387,9 @@
       <c r="J25" s="6" t="n">
         <v>-0.1268361604502264</v>
       </c>
-      <c r="K25" s="6" t="inlineStr"/>
+      <c r="K25" s="6" t="n">
+        <v>-0.1825759131234486</v>
+      </c>
       <c r="L25" s="6" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1336,7 +1408,9 @@
       <c r="E26" s="5" t="n">
         <v>-14.67256723582054</v>
       </c>
-      <c r="F26" s="5" t="inlineStr"/>
+      <c r="F26" s="5" t="n">
+        <v>-20.33218928660878</v>
+      </c>
       <c r="G26" s="5" t="inlineStr"/>
       <c r="H26" s="6" t="n">
         <v>-0.1272597610550424</v>
@@ -1347,7 +1421,9 @@
       <c r="J26" s="6" t="n">
         <v>-0.2239413272208615</v>
       </c>
-      <c r="K26" s="6" t="inlineStr"/>
+      <c r="K26" s="6" t="n">
+        <v>-0.2906600460014785</v>
+      </c>
       <c r="L26" s="6" t="inlineStr"/>
     </row>
     <row r="27">
@@ -1366,7 +1442,9 @@
       <c r="E27" s="5" t="n">
         <v>-0.6428088605512653</v>
       </c>
-      <c r="F27" s="5" t="inlineStr"/>
+      <c r="F27" s="5" t="n">
+        <v>-4.23588184362937</v>
+      </c>
       <c r="G27" s="5" t="inlineStr"/>
       <c r="H27" s="6" t="n">
         <v>0.2776620847488135</v>
@@ -1377,14 +1455,16 @@
       <c r="J27" s="6" t="n">
         <v>-0.01149707026598395</v>
       </c>
-      <c r="K27" s="6" t="inlineStr"/>
+      <c r="K27" s="6" t="n">
+        <v>-0.06941341539061477</v>
+      </c>
       <c r="L27" s="6" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -1397,7 +1477,7 @@
         <v>3.034425289894358</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0</v>
+        <v>8.110767150512164</v>
       </c>
       <c r="G28" s="5" t="inlineStr"/>
       <c r="H28" s="6" t="n">
@@ -1409,7 +1489,9 @@
       <c r="J28" s="6" t="n">
         <v>0.1316576668961762</v>
       </c>
-      <c r="K28" s="6" t="inlineStr"/>
+      <c r="K28" s="6" t="n">
+        <v>0.424694648910302</v>
+      </c>
       <c r="L28" s="6" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1428,7 +1510,9 @@
       <c r="E29" s="5" t="n">
         <v>-2.963598311146998</v>
       </c>
-      <c r="F29" s="5" t="inlineStr"/>
+      <c r="F29" s="5" t="n">
+        <v>1.236096500587229</v>
+      </c>
       <c r="G29" s="5" t="inlineStr"/>
       <c r="H29" s="6" t="n">
         <v>-0.5028361532961565</v>
@@ -1439,7 +1523,9 @@
       <c r="J29" s="6" t="n">
         <v>-0.1128586383623765</v>
       </c>
-      <c r="K29" s="6" t="inlineStr"/>
+      <c r="K29" s="6" t="n">
+        <v>0.05462857384382187</v>
+      </c>
       <c r="L29" s="6" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1458,7 +1544,9 @@
       <c r="E30" s="5" t="n">
         <v>9.218630204162961</v>
       </c>
-      <c r="F30" s="5" t="inlineStr"/>
+      <c r="F30" s="5" t="n">
+        <v>14.87719529533659</v>
+      </c>
       <c r="G30" s="5" t="inlineStr"/>
       <c r="H30" s="6" t="n">
         <v>0.228456753688101</v>
@@ -1469,7 +1557,9 @@
       <c r="J30" s="6" t="n">
         <v>0.4585109236967788</v>
       </c>
-      <c r="K30" s="6" t="inlineStr"/>
+      <c r="K30" s="6" t="n">
+        <v>0.9791594443663478</v>
+      </c>
       <c r="L30" s="6" t="inlineStr"/>
     </row>
     <row r="31">
@@ -1480,7 +1570,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Mejor diferencia negativa</t>
+          <t>Mejor</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -1493,7 +1583,7 @@
         <v>-1.543183843047677</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>0</v>
+        <v>0.440334258849473</v>
       </c>
       <c r="G31" s="5" t="inlineStr"/>
       <c r="H31" s="6" t="n">
@@ -1505,7 +1595,9 @@
       <c r="J31" s="6" t="n">
         <v>-0.0801791500392669</v>
       </c>
-      <c r="K31" s="6" t="inlineStr"/>
+      <c r="K31" s="6" t="n">
+        <v>0.02290727622397364</v>
+      </c>
       <c r="L31" s="6" t="inlineStr"/>
     </row>
     <row r="32">
@@ -1524,7 +1616,9 @@
       <c r="E32" s="5" t="n">
         <v>-5.164410166913451</v>
       </c>
-      <c r="F32" s="5" t="inlineStr"/>
+      <c r="F32" s="5" t="n">
+        <v>-3.932498873896146</v>
+      </c>
       <c r="G32" s="5" t="inlineStr"/>
       <c r="H32" s="6" t="n">
         <v>-0.1375180497219629</v>
@@ -1535,7 +1629,9 @@
       <c r="J32" s="6" t="n">
         <v>-0.2377160363115415</v>
       </c>
-      <c r="K32" s="6" t="inlineStr"/>
+      <c r="K32" s="6" t="n">
+        <v>-0.1803076836696064</v>
+      </c>
       <c r="L32" s="6" t="inlineStr"/>
     </row>
     <row r="33">
@@ -1554,7 +1650,9 @@
       <c r="E33" s="5" t="n">
         <v>1.77441673822035</v>
       </c>
-      <c r="F33" s="5" t="inlineStr"/>
+      <c r="F33" s="5" t="n">
+        <v>5.491487619815398</v>
+      </c>
       <c r="G33" s="5" t="inlineStr"/>
       <c r="H33" s="6" t="n">
         <v>0.4855832262219946</v>
@@ -1565,14 +1663,16 @@
       <c r="J33" s="6" t="n">
         <v>0.1013220118132904</v>
       </c>
-      <c r="K33" s="6" t="inlineStr"/>
+      <c r="K33" s="6" t="n">
+        <v>0.347558539021577</v>
+      </c>
       <c r="L33" s="6" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -1585,7 +1685,7 @@
         <v>-0.7581310509709116</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>0</v>
+        <v>-0.7369221600248999</v>
       </c>
       <c r="G34" s="5" t="inlineStr"/>
       <c r="H34" s="6" t="n">
@@ -1597,7 +1697,9 @@
       <c r="J34" s="6" t="n">
         <v>-0.01308866539120753</v>
       </c>
-      <c r="K34" s="6" t="inlineStr"/>
+      <c r="K34" s="6" t="n">
+        <v>-0.01400424958131816</v>
+      </c>
       <c r="L34" s="6" t="inlineStr"/>
     </row>
     <row r="35">
@@ -1616,7 +1718,9 @@
       <c r="E35" s="5" t="n">
         <v>-5.53472847878438</v>
       </c>
-      <c r="F35" s="5" t="inlineStr"/>
+      <c r="F35" s="5" t="n">
+        <v>-6.460242429556196</v>
+      </c>
       <c r="G35" s="5" t="inlineStr"/>
       <c r="H35" s="6" t="n">
         <v>-0.1296220502203089</v>
@@ -1627,7 +1731,9 @@
       <c r="J35" s="6" t="n">
         <v>-0.0903650123039145</v>
       </c>
-      <c r="K35" s="6" t="inlineStr"/>
+      <c r="K35" s="6" t="n">
+        <v>-0.1138444831945686</v>
+      </c>
       <c r="L35" s="6" t="inlineStr"/>
     </row>
     <row r="36">
@@ -1646,7 +1752,9 @@
       <c r="E36" s="5" t="n">
         <v>3.846686626928534</v>
       </c>
-      <c r="F36" s="5" t="inlineStr"/>
+      <c r="F36" s="5" t="n">
+        <v>5.820422244207164</v>
+      </c>
       <c r="G36" s="5" t="inlineStr"/>
       <c r="H36" s="6" t="n">
         <v>0.1037700998284058</v>
@@ -1657,14 +1765,16 @@
       <c r="J36" s="6" t="n">
         <v>0.07006630197284375</v>
       </c>
-      <c r="K36" s="6" t="inlineStr"/>
+      <c r="K36" s="6" t="n">
+        <v>0.1190884283430877</v>
+      </c>
       <c r="L36" s="6" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Peor Diferencia Positiva</t>
+          <t>Peor</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
@@ -1677,7 +1787,7 @@
         <v>2.301314894018586</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>0</v>
+        <v>0.2965879011754213</v>
       </c>
       <c r="G37" s="5" t="inlineStr"/>
       <c r="H37" s="6" t="n">
@@ -1689,7 +1799,9 @@
       <c r="J37" s="6" t="n">
         <v>0.1007996404431672</v>
       </c>
-      <c r="K37" s="6" t="inlineStr"/>
+      <c r="K37" s="6" t="n">
+        <v>0.01053365735990983</v>
+      </c>
       <c r="L37" s="6" t="inlineStr"/>
     </row>
     <row r="38">
@@ -1708,7 +1820,9 @@
       <c r="E38" s="5" t="n">
         <v>-1.484669294314454</v>
       </c>
-      <c r="F38" s="5" t="inlineStr"/>
+      <c r="F38" s="5" t="n">
+        <v>-7.31074077073076</v>
+      </c>
       <c r="G38" s="5" t="inlineStr"/>
       <c r="H38" s="6" t="n">
         <v>-0.2521475047400986</v>
@@ -1719,7 +1833,9 @@
       <c r="J38" s="6" t="n">
         <v>-0.059939501369847</v>
       </c>
-      <c r="K38" s="6" t="inlineStr"/>
+      <c r="K38" s="6" t="n">
+        <v>-0.2169951791775413</v>
+      </c>
       <c r="L38" s="6" t="inlineStr"/>
     </row>
     <row r="39">
@@ -1738,7 +1854,9 @@
       <c r="E39" s="5" t="n">
         <v>6.254151329977558</v>
       </c>
-      <c r="F39" s="5" t="inlineStr"/>
+      <c r="F39" s="5" t="n">
+        <v>5.14873189591394</v>
+      </c>
       <c r="G39" s="5" t="inlineStr"/>
       <c r="H39" s="6" t="n">
         <v>0.206217379389811</v>
@@ -1749,7 +1867,9 @@
       <c r="J39" s="6" t="n">
         <v>0.2996545422169624</v>
       </c>
-      <c r="K39" s="6" t="inlineStr"/>
+      <c r="K39" s="6" t="n">
+        <v>0.2063874583038671</v>
+      </c>
       <c r="L39" s="6" t="inlineStr"/>
     </row>
     <row r="40">
